--- a/tests/test_data/test_learning_rate_schedules_improvement.xlsx
+++ b/tests/test_data/test_learning_rate_schedules_improvement.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>initial_learning_rate</t>
   </si>
@@ -75,14 +75,19 @@
   </si>
   <si>
     <t>stabilized</t>
+  </si>
+  <si>
+    <t>sig_chg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -121,10 +126,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -409,7 +415,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -447,7 +453,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -473,18 +479,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="4" max="4" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -501,16 +507,19 @@
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -522,17 +531,20 @@
         <v>100</v>
       </c>
       <c r="F2" t="b">
-        <f>IF(AND(G2&gt;=patience,D2&lt;epsilon),TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <f>IF(AND(I2&gt;=patience,D2&lt;epsilon),TRUE, FALSE)</f>
         <v>0</v>
       </c>
       <c r="H2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1E-3</v>
       </c>
@@ -544,60 +556,68 @@
         <v>102</v>
       </c>
       <c r="D3" s="2">
-        <f>((E2-C3))/E2</f>
+        <f t="shared" ref="D3:D7" si="0">(E2-C3)/E2</f>
         <v>-0.02</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E11" si="0">IF(1-(C3/E2)&gt;epsilon,C3,E2)</f>
+        <f>IF(G3=TRUE,MIN(C3,E2),IF(D3&gt;epsilon,C3,E2))</f>
         <v>100</v>
       </c>
       <c r="F3" t="b">
-        <f>IF(AND(G3&gt;=patience,D3&lt;epsilon),TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f>IF(E3&lt;&gt;E2,0,G2+1)</f>
-        <v>1</v>
+        <f>IF(D3&gt;=epsilon,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <f>IF(F3=TRUE,FALSE,IF(I2=patience-1,TRUE,FALSE))</f>
+        <v>0</v>
       </c>
       <c r="H3">
-        <f>MAX(IF(F3=TRUE,H2*decay_factor,H2),min_learning_rate)</f>
+        <f>MAX(IF(G3=TRUE,H2*decay_factor,H2),min_learning_rate)</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f>IF(F3=TRUE,0,MOD(I2+1,patience))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1E-3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B10" si="1">B3+1</f>
+        <f t="shared" ref="B4:B21" si="1">B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <f>C3-(C3*A4)</f>
         <v>101.898</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D11" si="2">((E3-C4))/E3</f>
+        <f t="shared" si="0"/>
         <v>-1.8979999999999962E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>IF(G4=TRUE,MIN(C4,E3),IF(D4&gt;epsilon,C4,E3))</f>
         <v>100</v>
       </c>
       <c r="F4" t="b">
-        <f>IF(AND(G4&gt;=patience,D4&lt;epsilon),TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G11" si="3">IF(E4&lt;&gt;E3,0,G3+1)</f>
-        <v>2</v>
+        <f>IF(D4&gt;=epsilon,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <f>IF(F4=TRUE,FALSE,IF(I3=patience-1,TRUE,FALSE))</f>
+        <v>1</v>
       </c>
       <c r="H4">
-        <f>MAX(IF(F4=TRUE,H3*decay_factor,H3),min_learning_rate)</f>
+        <f>MAX(IF(G4=TRUE,H3*decay_factor,H3),min_learning_rate)</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f>IF(F4=TRUE,0,MOD(I3+1,patience))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.02</v>
       </c>
@@ -606,31 +626,35 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C11" si="4">C4-(C4*A5)</f>
+        <f t="shared" ref="C5:C11" si="2">C4-(C4*A5)</f>
         <v>99.860039999999998</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.3996000000000208E-3</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>IF(G5=TRUE,MIN(C5,E4),IF(D5&gt;epsilon,C5,E4))</f>
         <v>100</v>
       </c>
       <c r="F5" t="b">
-        <f>IF(AND(G5&gt;=patience,D5&lt;epsilon),TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>IF(D5&gt;=epsilon,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <f>IF(F5=TRUE,FALSE,IF(I4=patience-1,TRUE,FALSE))</f>
+        <v>0</v>
       </c>
       <c r="H5">
-        <f>MAX(IF(F5=TRUE,H4*decay_factor,H4),min_learning_rate)</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <f>MAX(IF(G5=TRUE,H4*decay_factor,H4),min_learning_rate)</f>
+        <v>0.05</v>
+      </c>
+      <c r="I5">
+        <f>IF(F5=TRUE,0,MOD(I4+1,patience))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1E-3</v>
       </c>
@@ -639,31 +663,35 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>99.760179960000002</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.398200399999979E-3</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>IF(G6=TRUE,MIN(C6,E5),IF(D6&gt;epsilon,C6,E5))</f>
+        <v>99.760179960000002</v>
       </c>
       <c r="F6" t="b">
-        <f>IF(AND(G6&gt;=patience,D6&lt;epsilon),TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>IF(D6&gt;=epsilon,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <f>IF(F6=TRUE,FALSE,IF(I5=patience-1,TRUE,FALSE))</f>
+        <v>1</v>
       </c>
       <c r="H6">
-        <f>MAX(IF(F6=TRUE,H5*decay_factor,H5),min_learning_rate)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <f>MAX(IF(G6=TRUE,H5*decay_factor,H5),min_learning_rate)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I6">
+        <f>IF(F6=TRUE,0,MOD(I5+1,patience))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.02</v>
       </c>
@@ -672,31 +700,35 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>97.764976360800006</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
-        <v>2.2350236391999942E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9999999999999962E-2</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>IF(G7=TRUE,MIN(C7,E6),IF(D7&gt;epsilon,C7,E6))</f>
         <v>97.764976360800006</v>
       </c>
       <c r="F7" t="b">
-        <f>IF(AND(G7&gt;=patience,D7&lt;epsilon),TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
+        <f>IF(D7&gt;=epsilon,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <f>IF(F7=TRUE,FALSE,IF(I6=patience-1,TRUE,FALSE))</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <f>MAX(IF(F7=TRUE,H6*decay_factor,H6),min_learning_rate)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <f>MAX(IF(G7=TRUE,H6*decay_factor,H6),min_learning_rate)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I7">
+        <f>IF(F7=TRUE,0,MOD(I6+1,patience))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1E-3</v>
       </c>
@@ -705,31 +737,35 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>97.667211384439199</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="2"/>
+        <f>(E7-C8)/E7</f>
         <v>1.000000000000072E-3</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>IF(G8=TRUE,MIN(C8,E7),IF(D8&gt;epsilon,C8,E7))</f>
         <v>97.764976360800006</v>
       </c>
       <c r="F8" t="b">
-        <f>IF(AND(G8&gt;=patience,D8&lt;epsilon),TRUE, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>IF(D8&gt;=epsilon,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <f>IF(F8=TRUE,FALSE,IF(I7=patience-1,TRUE,FALSE))</f>
+        <v>0</v>
       </c>
       <c r="H8">
-        <f>MAX(IF(F8=TRUE,H7*decay_factor,H7),min_learning_rate)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <f>MAX(IF(G8=TRUE,H7*decay_factor,H7),min_learning_rate)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I8">
+        <f>IF(F8=TRUE,0,MOD(I7+1,patience))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1E-3</v>
       </c>
@@ -738,31 +774,35 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>97.569544173054766</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D9:D21" si="3">(E8-C9)/E8</f>
         <v>1.9990000000000086E-3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>97.764976360800006</v>
+        <f>IF(G9=TRUE,MIN(C9,E8),IF(D9&gt;epsilon,C9,E8))</f>
+        <v>97.569544173054766</v>
       </c>
       <c r="F9" t="b">
-        <f>IF(AND(G9&gt;=patience,D9&lt;epsilon),TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>IF(D9&gt;=epsilon,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <f>IF(F9=TRUE,FALSE,IF(I8=patience-1,TRUE,FALSE))</f>
+        <v>1</v>
       </c>
       <c r="H9">
-        <f>MAX(IF(F9=TRUE,H8*decay_factor,H8),min_learning_rate)</f>
-        <v>6.2500000000000003E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <f>MAX(IF(G9=TRUE,H8*decay_factor,H8),min_learning_rate)</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I9">
+        <f>IF(F9=TRUE,0,MOD(I8+1,patience))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1E-3</v>
       </c>
@@ -771,60 +811,439 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>97.471974628881711</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="2"/>
-        <v>2.9970010000000121E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.0000000000000033E-3</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>97.764976360800006</v>
+        <f>IF(G10=TRUE,MIN(C10,E9),IF(D10&gt;epsilon,C10,E9))</f>
+        <v>97.569544173054766</v>
       </c>
       <c r="F10" t="b">
-        <f>IF(AND(G10&gt;=patience,D10&lt;epsilon),TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f>IF(D10&gt;=epsilon,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <f>IF(F10=TRUE,FALSE,IF(I9=patience-1,TRUE,FALSE))</f>
+        <v>0</v>
       </c>
       <c r="H10">
-        <f>MAX(IF(F10=TRUE,H9*decay_factor,H9),min_learning_rate)</f>
-        <v>3.1250000000000002E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <f>MAX(IF(G10=TRUE,H9*decay_factor,H9),min_learning_rate)</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I10">
+        <f>IF(F10=TRUE,0,MOD(I9+1,patience))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1E-3</v>
       </c>
       <c r="B11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>97.374502654252822</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="3"/>
+        <v>1.999000000000071E-3</v>
+      </c>
+      <c r="E11">
+        <f>IF(G11=TRUE,MIN(C11,E10),IF(D11&gt;epsilon,C11,E10))</f>
+        <v>97.374502654252822</v>
+      </c>
+      <c r="F11" t="b">
+        <f>IF(D11&gt;=epsilon,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <f>IF(F11=TRUE,FALSE,IF(I10=patience-1,TRUE,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f>MAX(IF(G11=TRUE,H10*decay_factor,H10),min_learning_rate)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I11">
+        <f>IF(F11=TRUE,0,MOD(I10+1,patience))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1E-3</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C12">
+        <f t="shared" ref="C12:C19" si="4">C11-(C11*A12)</f>
+        <v>97.277128151598575</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="3"/>
+        <v>9.9999999999994429E-4</v>
+      </c>
+      <c r="E12">
+        <f>IF(G12=TRUE,MIN(C12,E11),IF(D12&gt;epsilon,C12,E11))</f>
+        <v>97.374502654252822</v>
+      </c>
+      <c r="F12" t="b">
+        <f>IF(D12&gt;=epsilon,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <f>IF(F12=TRUE,FALSE,IF(I11=patience-1,TRUE,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>MAX(IF(G12=TRUE,H11*decay_factor,H11),min_learning_rate)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I12">
+        <f>IF(F12=TRUE,0,MOD(I11+1,patience))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.01</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="4"/>
-        <v>97.374502654252822</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>3.99400399900008E-3</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>97.764976360800006</v>
-      </c>
-      <c r="F11" t="b">
-        <f>IF(AND(G11&gt;=patience,D11&lt;epsilon),TRUE, FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="G11">
+        <v>96.304356870082586</v>
+      </c>
+      <c r="D13" s="2">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <f>MAX(IF(F11=TRUE,H10*decay_factor,H10),min_learning_rate)</f>
-        <v>2E-3</v>
+        <v>1.0989999999999979E-2</v>
+      </c>
+      <c r="E13">
+        <f>IF(G13=TRUE,MIN(C13,E12),IF(D13&gt;epsilon,C13,E12))</f>
+        <v>96.304356870082586</v>
+      </c>
+      <c r="F13" t="b">
+        <f>IF(D13&gt;=epsilon,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <f>IF(F13=TRUE,FALSE,IF(I12=patience-1,TRUE,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>MAX(IF(G13=TRUE,H12*decay_factor,H12),min_learning_rate)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I13">
+        <f>IF(F13=TRUE,0,MOD(I12+1,patience))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.01</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>95.34131330138176</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="E14">
+        <f>IF(G14=TRUE,MIN(C14,E13),IF(D14&gt;epsilon,C14,E13))</f>
+        <v>96.304356870082586</v>
+      </c>
+      <c r="F14" t="b">
+        <f>IF(D14&gt;=epsilon,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <f>IF(F14=TRUE,FALSE,IF(I13=patience-1,TRUE,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>MAX(IF(G14=TRUE,H13*decay_factor,H13),min_learning_rate)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I14">
+        <f>IF(F14=TRUE,0,MOD(I13+1,patience))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.01</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>94.387900168367949</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9899999999999932E-2</v>
+      </c>
+      <c r="E15">
+        <f>IF(G15=TRUE,MIN(C15,E14),IF(D15&gt;epsilon,C15,E14))</f>
+        <v>94.387900168367949</v>
+      </c>
+      <c r="F15" t="b">
+        <f>IF(D15&gt;=epsilon,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <f>IF(F15=TRUE,FALSE,IF(I14=patience-1,TRUE,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>MAX(IF(G15=TRUE,H14*decay_factor,H14),min_learning_rate)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I15">
+        <f>IF(F15=TRUE,0,MOD(I14+1,patience))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.01</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>93.444021166684266</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="3"/>
+        <v>1.000000000000004E-2</v>
+      </c>
+      <c r="E16">
+        <f>IF(G16=TRUE,MIN(C16,E15),IF(D16&gt;=epsilon,C16,E15))</f>
+        <v>93.444021166684266</v>
+      </c>
+      <c r="F16" t="b">
+        <f>IF(D16&gt;=epsilon,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <f>IF(F16=TRUE,FALSE,IF(I15=patience-1,TRUE,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>MAX(IF(G16=TRUE,H15*decay_factor,H15),min_learning_rate)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I16">
+        <f>IF(F16=TRUE,0,MOD(I15+1,patience))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.01</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>92.509580955017427</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="3"/>
+        <v>9.999999999999962E-3</v>
+      </c>
+      <c r="E17">
+        <f>IF(G17=TRUE,MIN(C17,E16),IF(D17&gt;epsilon,C17,E16))</f>
+        <v>93.444021166684266</v>
+      </c>
+      <c r="F17" t="b">
+        <f>IF(D17&gt;=epsilon,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <f>IF(F17=TRUE,FALSE,IF(I16=patience-1,TRUE,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>MAX(IF(G17=TRUE,H16*decay_factor,H16),min_learning_rate)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I17">
+        <f>IF(F17=TRUE,0,MOD(I16+1,patience))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1E-3</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>92.417071374062402</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0990000000000034E-2</v>
+      </c>
+      <c r="E18">
+        <f>IF(G18=TRUE,MIN(C18,E17),IF(D18&gt;epsilon,C18,E17))</f>
+        <v>92.417071374062402</v>
+      </c>
+      <c r="F18" t="b">
+        <f>IF(D18&gt;=epsilon,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <f>IF(F18=TRUE,FALSE,IF(I17=patience-1,TRUE,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>MAX(IF(G18=TRUE,H17*decay_factor,H17),min_learning_rate)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I18">
+        <f>IF(F18=TRUE,0,MOD(I17+1,patience))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1E-3</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>92.324654302688344</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="3"/>
+        <v>9.999999999999521E-4</v>
+      </c>
+      <c r="E19">
+        <f>IF(G19=TRUE,MIN(C19,E18),IF(D19&gt;epsilon,C19,E18))</f>
+        <v>92.417071374062402</v>
+      </c>
+      <c r="F19" t="b">
+        <f>IF(D19&gt;=epsilon,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <f>IF(F19=TRUE,FALSE,IF(I18=patience-1,TRUE,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>MAX(IF(G19=TRUE,H18*decay_factor,H18),min_learning_rate)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I19">
+        <f>IF(F19=TRUE,0,MOD(I18+1,patience))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1E-3</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C21" si="5">C19-(C19*A20)</f>
+        <v>92.232329648385658</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="3"/>
+        <v>1.9989999999999301E-3</v>
+      </c>
+      <c r="E20">
+        <f>IF(G20=TRUE,MIN(C20,E19),IF(D20&gt;epsilon,C20,E19))</f>
+        <v>92.232329648385658</v>
+      </c>
+      <c r="F20" t="b">
+        <f>IF(D20&gt;=epsilon,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <f>IF(F20=TRUE,FALSE,IF(I19=patience-1,TRUE,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f>MAX(IF(G20=TRUE,H19*decay_factor,H19),min_learning_rate)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I20">
+        <f>IF(F20=TRUE,0,MOD(I19+1,patience))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1E-3</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="5"/>
+        <v>92.140097318737276</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="3"/>
+        <v>9.9999999999996533E-4</v>
+      </c>
+      <c r="E21">
+        <f>IF(G21=TRUE,MIN(C21,E20),IF(D21&gt;epsilon,C21,E20))</f>
+        <v>92.232329648385658</v>
+      </c>
+      <c r="F21" t="b">
+        <f>IF(D21&gt;=epsilon,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <f>IF(F21=TRUE,FALSE,IF(I20=patience-1,TRUE,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>MAX(IF(G21=TRUE,H20*decay_factor,H20),min_learning_rate)</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I21">
+        <f>IF(F21=TRUE,0,MOD(I20+1,patience))</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
